--- a/biology/Médecine/Classe_ATC_J06/Classe_ATC_J06.xlsx
+++ b/biology/Médecine/Classe_ATC_J06/Classe_ATC_J06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC J06, dénommée « Sérums immunisants et immunoglobulines », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique J de la classification, intitulé « Anti-infectieux (usage systémique) ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC J06, dénommée « Sérums immunisants et immunoglobulines », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique J de la classification, intitulé « Anti-infectieux (usage systémique) ».
 Dans la classification ATC vétérinaire, ces produits sont répertoriés au sein du groupe ATCvet QI (produits immunologiques).
-J06 Immunsérums et immunoglobulines[2].
+J06 Immunsérums et immunoglobulines.
 </t>
         </is>
       </c>
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>J06AA Immunsérums
-J06AA01 Antitoxine diphtérique
+          <t>J06AA Immunsérums</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>J06AA01 Antitoxine diphtérique
 J06AA02 Antitoxine tétanique
 J06AA03 Sérum antivenimeux
 J06AA04 Antitoxine botulique
@@ -551,11 +568,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>J06BA Immunoglobulines humaines normales
-J06BA01 Immunoglobulines humaines normales, pour administration extravasculaire
-J06BA02 Immunoglobulines humaines normales, pour administration intravasculaire
-J06BB Immunoglobulines spécifiques
-J06BB01 Immunoglobuline anti-D (Rho)
+          <t>J06BA Immunoglobulines humaines normales</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>J06BA01 Immunoglobulines humaines normales, pour administration extravasculaire
+J06BA02 Immunoglobulines humaines normales, pour administration intravasculaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J06</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>J06B Immunoglobulines</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>J06BB Immunoglobulines spécifiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>J06BB01 Immunoglobuline anti-D (Rho)
 J06BB02 Immunoglobuline antitétanique
 J06BB03 Immunoglobuline antivaricelle-zona (en)
 J06BB04 Immunoglobuline anti-hépatite B
@@ -576,9 +632,43 @@
 J06BB19 Immunoglobuline contre le charbon
 J06BB21 Bezlotoxumab
 J06BB22 Obiltoxaximab
-J06BB30 Associations
-J06BC Autres immunoglobulines
-J06BC01 Nébacumab</t>
+J06BB30 Associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J06</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>J06B Immunoglobulines</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>J06BC Autres immunoglobulines</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>J06BC01 Nébacumab</t>
         </is>
       </c>
     </row>
